--- a/ACE_UseCase_Update.xlsx
+++ b/ACE_UseCase_Update.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssi216\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JavaJMS" sheetId="1" r:id="rId1"/>
@@ -271,7 +266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,7 +301,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -517,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,6 +667,7 @@
       <c r="B15" t="s">
         <v>24</v>
       </c>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -829,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,6 +979,9 @@
       </c>
       <c r="C15" t="s">
         <v>9</v>
+      </c>
+      <c r="D15" s="6">
+        <v>42711.684027777781</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">

--- a/ACE_UseCase_Update.xlsx
+++ b/ACE_UseCase_Update.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="315" windowWidth="14880" windowHeight="7875" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="JavaJMS" sheetId="1" r:id="rId1"/>
     <sheet name="Multithreading" sheetId="5" r:id="rId2"/>
-    <sheet name="Core" sheetId="2" r:id="rId3"/>
-    <sheet name="Spring" sheetId="3" r:id="rId4"/>
-    <sheet name="Hibernate" sheetId="4" r:id="rId5"/>
+    <sheet name="CoreFundamental" sheetId="2" r:id="rId3"/>
+    <sheet name="Collection" sheetId="6" r:id="rId4"/>
+    <sheet name="ConcurrentCollection" sheetId="7" r:id="rId5"/>
+    <sheet name="Spring" sheetId="3" r:id="rId6"/>
+    <sheet name="Hibernate" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="41">
   <si>
     <t>UseCase  : JMS (OrderQueue and ExecutedOrderQueue)</t>
   </si>
@@ -50,9 +52,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Hi</t>
-  </si>
-  <si>
     <t>Saurabh Gupta</t>
   </si>
   <si>
@@ -120,6 +119,30 @@
   </si>
   <si>
     <t>Piyush Utreja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UseCase  : Multithreading </t>
+  </si>
+  <si>
+    <t>UseCase  : Core Fundamental</t>
+  </si>
+  <si>
+    <t>ETA 22nd Dec</t>
+  </si>
+  <si>
+    <t>ETA 20/12/2016</t>
+  </si>
+  <si>
+    <t>UseCase  : Collection</t>
+  </si>
+  <si>
+    <t>UseCase  : Spring Framework</t>
+  </si>
+  <si>
+    <t>UseCase  : Hibernate Framework</t>
+  </si>
+  <si>
+    <t>UseCase  : ConcurrentCollection</t>
   </si>
 </sst>
 </file>
@@ -178,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -186,11 +209,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -205,7 +243,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -215,9 +262,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -513,7 +557,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +566,8 @@
     <col min="2" max="2" width="27.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="6" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
@@ -573,7 +618,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -581,7 +629,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -589,7 +640,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -603,7 +654,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1">
+        <v>42723.684120370373</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -611,7 +668,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -619,7 +679,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>42711.659722222219</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -627,7 +693,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -641,7 +707,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
+        <v>42712.701481481483</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -649,7 +721,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6">
+        <v>42723.708333333336</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -657,7 +735,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -665,16 +743,21 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6">
+        <v>42710.208333333336</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,7 +765,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -696,7 +779,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -704,7 +787,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="6">
+        <v>42710.208333333336</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -712,7 +801,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -726,13 +815,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="8">
-        <v>42724</v>
+      <c r="D21" s="6">
+        <v>42710.208333333336</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -740,13 +829,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="8">
-        <v>42724</v>
+      <c r="D22" s="6">
+        <v>42710.208333333336</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -754,13 +843,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="8">
-        <v>42724</v>
+      <c r="D23" s="1">
+        <v>42724.704953703702</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,7 +857,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>9</v>
@@ -782,7 +871,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -790,7 +879,13 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="6">
+        <v>42710.208333333336</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -798,7 +893,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -817,7 +912,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -825,23 +920,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -851,7 +949,7 @@
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -883,7 +981,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -891,7 +992,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -905,7 +1006,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>42711.70565891204</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -913,7 +1020,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1">
+        <v>42712.705659722225</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -921,7 +1034,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="9">
+        <v>42718.566076388888</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -929,7 +1048,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>9</v>
@@ -943,7 +1062,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -951,7 +1070,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -959,7 +1078,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -967,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -975,13 +1094,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="6">
-        <v>42711.684027777781</v>
+        <v>42724.475694444445</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -989,7 +1108,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -997,7 +1116,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -1011,7 +1130,13 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6">
+        <v>42718.684027777781</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1019,7 +1144,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -1033,10 +1158,13 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>42711.718854166669</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1044,7 +1172,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>9</v>
@@ -1058,7 +1186,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>9</v>
@@ -1072,7 +1200,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -1086,7 +1214,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -1100,7 +1228,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1108,7 +1236,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1116,7 +1244,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -1129,53 +1257,1395 @@
   <sortState ref="B4:D27">
     <sortCondition ref="B27"/>
   </sortState>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42713.472974537035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1">
+        <v>42713.472974537035</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1">
+        <v>42713.563946759263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1">
+        <v>42713.566030092596</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42718.472974537035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1">
+        <v>42718.566076388888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1">
+        <v>42717.68408564815</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1">
+        <v>42717.68408564815</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+  </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42725.651446759257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>10</v>
       </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ACE_UseCase_Update.xlsx
+++ b/ACE_UseCase_Update.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="14880" windowHeight="7875" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="315" windowWidth="14880" windowHeight="7875" tabRatio="778" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JavaJMS" sheetId="1" r:id="rId1"/>
@@ -12,15 +12,16 @@
     <sheet name="CoreFundamental" sheetId="2" r:id="rId3"/>
     <sheet name="Collection" sheetId="6" r:id="rId4"/>
     <sheet name="ConcurrentCollection" sheetId="7" r:id="rId5"/>
-    <sheet name="Spring" sheetId="3" r:id="rId6"/>
-    <sheet name="Hibernate" sheetId="4" r:id="rId7"/>
+    <sheet name="DesignPattern" sheetId="8" r:id="rId6"/>
+    <sheet name="Spring" sheetId="3" r:id="rId7"/>
+    <sheet name="Hibernate" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="46">
   <si>
     <t>UseCase  : JMS (OrderQueue and ExecutedOrderQueue)</t>
   </si>
@@ -143,13 +144,28 @@
   </si>
   <si>
     <t>UseCase  : ConcurrentCollection</t>
+  </si>
+  <si>
+    <t>ETA 22-12-2016</t>
+  </si>
+  <si>
+    <t>UseCase  : DesignPattern</t>
+  </si>
+  <si>
+    <t>Parvez Alam</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Parvez joined the ACE program from collection session on 23th Dec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +201,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -228,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -253,6 +277,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,19 +806,25 @@
       <c r="B18" t="s">
         <v>26</v>
       </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1">
+        <v>42721.648611111108</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="6">
-        <v>42710.208333333336</v>
+        <v>44</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -814,8 +845,8 @@
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>13</v>
+      <c r="B21" t="s">
+        <v>27</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -829,7 +860,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -842,36 +873,42 @@
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
-        <v>11</v>
+      <c r="B23" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="1">
-        <v>42724.704953703702</v>
+      <c r="D23" s="6">
+        <v>42710.208333333336</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="6">
-        <v>42710.208333333336</v>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1">
+        <v>42724.704953703702</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
-        <v>28</v>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="6">
+        <v>42710.208333333336</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -879,13 +916,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="6">
-        <v>42710.208333333336</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -893,7 +924,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -902,12 +933,26 @@
         <v>42710.208333333336</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="6">
+        <v>42710.208333333336</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="B5:D27">
-    <sortCondition ref="B4"/>
+  <sortState ref="B5:D28">
+    <sortCondition ref="B28"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4 C6:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4 C6:C27 C29:C1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -918,10 +963,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,6 +1125,12 @@
       <c r="B13" t="s">
         <v>21</v>
       </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
+        <v>42711.580555555556</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1136,7 +1187,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="6">
-        <v>42718.684027777781</v>
+        <v>42724.684027777781</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1144,13 +1195,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="1">
-        <v>42711.718854166669</v>
+        <v>44</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1158,7 +1209,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -1171,14 +1222,14 @@
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="6">
-        <v>42711.684027777781</v>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1">
+        <v>42711.718854166669</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1186,7 +1237,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>9</v>
@@ -1199,14 +1250,14 @@
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="1">
-        <v>42711.70565891204</v>
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6">
+        <v>42711.684027777781</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1214,7 +1265,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -1228,7 +1279,13 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1">
+        <v>42711.70565891204</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1236,7 +1293,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1244,18 +1301,26 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1">
         <v>42711.70565891204</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B4:D27">
-    <sortCondition ref="B27"/>
+  <sortState ref="B5:D28">
+    <sortCondition ref="B28"/>
   </sortState>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4">
@@ -1269,17 +1334,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="31.5703125" customWidth="1"/>
@@ -1346,7 +1411,12 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42725.705555555556</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -1355,6 +1425,9 @@
       <c r="B7" t="s">
         <v>17</v>
       </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1363,7 +1436,12 @@
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1">
+        <v>42725.651446759257</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1461,34 +1539,38 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
@@ -1497,31 +1579,38 @@
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="1">
-        <v>42713.563946759263</v>
-      </c>
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1">
+        <v>42713.563946759263</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1">
+        <v>42725.688946759263</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1529,7 +1618,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1537,16 +1626,27 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1">
         <v>42713.566030092596</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B5:D28">
+    <sortCondition ref="B28"/>
+  </sortState>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4">
       <formula1>"Yes,No"</formula1>
@@ -1559,11 +1659,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1636,7 +1734,12 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42725.705555555556</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -1645,6 +1748,12 @@
       <c r="B7" t="s">
         <v>17</v>
       </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>42718.566076388888</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1702,6 +1811,12 @@
       <c r="B13" t="s">
         <v>21</v>
       </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6">
+        <v>42724.684027777781</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1749,36 +1864,44 @@
       <c r="C18" t="s">
         <v>9</v>
       </c>
+      <c r="D18" s="6">
+        <v>42724.684027777781</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1">
+        <v>42723.606944444444</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>42723.606944444444</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="1">
-        <v>42717.68408564815</v>
+      <c r="B21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1786,7 +1909,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>9</v>
@@ -1799,29 +1922,42 @@
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1">
+        <v>42717.68408564815</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1">
+        <v>42725.705555555556</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1">
+        <v>42725.705555555556</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1829,7 +1965,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1837,11 +1973,27 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1">
+        <v>42725.705555555556</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="B5:D28">
+    <sortCondition ref="B28"/>
+  </sortState>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4">
       <formula1>"Yes,No"</formula1>
@@ -1854,10 +2006,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,7 +2080,12 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42725.705555555556</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -1937,6 +2094,12 @@
       <c r="B7" t="s">
         <v>17</v>
       </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>42725.651446759257</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1989,6 +2152,12 @@
       <c r="B13" t="s">
         <v>21</v>
       </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
+        <v>42725.651446759257</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -2036,70 +2205,91 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>42725.705555555556</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="1"/>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1">
+        <v>42725.651446759257</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1">
+        <v>42725.651446759257</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1">
+        <v>42725.651446759257</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2107,11 +2297,27 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1">
+        <v>42725.651446759257</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="B4:D28">
+    <sortCondition ref="B28"/>
+  </sortState>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4">
       <formula1>"Yes,No"</formula1>
@@ -2124,10 +2330,344 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection sqref="A1:G31"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42725.651446759257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42725.651446759257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>42725.651446759257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1">
+        <v>42725.651446759257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>42725.651446759257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
+        <v>42725.651446759257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
+        <v>42725.651446759257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>42725.705555555556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1">
+        <v>42725.651446759257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1">
+        <v>42725.651446759257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="B4:D28">
+    <sortCondition ref="B28"/>
+  </sortState>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2297,86 +2837,97 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="5"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D28" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <sortState ref="A4:G28">
+    <sortCondition ref="B28"/>
+  </sortState>
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
@@ -2386,12 +2937,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2561,86 +3112,97 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="5"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D28" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <sortState ref="A4:G28">
+    <sortCondition ref="B28"/>
+  </sortState>
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4">
       <formula1>"Yes,No"</formula1>
     </dataValidation>

--- a/ACE_UseCase_Update.xlsx
+++ b/ACE_UseCase_Update.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="14880" windowHeight="7875" tabRatio="778" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="315" windowWidth="14880" windowHeight="7875" tabRatio="778"/>
   </bookViews>
   <sheets>
     <sheet name="JavaJMS" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="47">
   <si>
     <t>UseCase  : JMS (OrderQueue and ExecutedOrderQueue)</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Parvez joined the ACE program from collection session on 23th Dec</t>
+  </si>
+  <si>
+    <t>TOTAL COUNT for Done</t>
   </si>
 </sst>
 </file>
@@ -579,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,12 +950,21 @@
         <v>42710.208333333336</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="12">
+        <f>+COUNTIF(C4:C28,"Yes")</f>
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="B5:D28">
     <sortCondition ref="B28"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4 C6:C27 C29:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4 C6:C27 C30:C1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -963,10 +975,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,6 +1328,15 @@
       </c>
       <c r="D28" s="1">
         <v>42711.70565891204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="12">
+        <f>+COUNTIF(C4:C28,"Yes")</f>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1334,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,6 +1664,15 @@
         <v>42713.566030092596</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="12">
+        <f>+COUNTIF(C4:C28,"Yes")</f>
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="B5:D28">
     <sortCondition ref="B28"/>
@@ -1659,9 +1689,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1803,6 +1835,12 @@
       <c r="B12" t="s">
         <v>31</v>
       </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6">
+        <v>42725.684027777781</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1833,6 +1871,12 @@
       <c r="B15" t="s">
         <v>23</v>
       </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6">
+        <v>42724.684027777781</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1852,7 +1896,9 @@
       <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6">
+        <v>42719.684027777781</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1903,6 +1949,12 @@
       <c r="B21" t="s">
         <v>27</v>
       </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6">
+        <v>42725.684027777781</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -1988,6 +2040,15 @@
       </c>
       <c r="D28" s="1">
         <v>42725.705555555556</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="12">
+        <f>+COUNTIF(C4:C28,"Yes")</f>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2006,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,6 +2375,15 @@
         <v>42725.651446759257</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="12">
+        <f>+COUNTIF(C4:C28,"Yes")</f>
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="B4:D28">
     <sortCondition ref="B28"/>
@@ -2330,10 +2400,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2648,6 +2718,15 @@
       </c>
       <c r="D28" s="1"/>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="12">
+        <f>+COUNTIF(C4:C28,"Yes")</f>
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="B4:D28">
     <sortCondition ref="B28"/>
@@ -2664,10 +2743,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2922,6 +3001,15 @@
         <v>30</v>
       </c>
       <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="12">
+        <f>+COUNTIF(C4:C28,"Yes")</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A4:G28">
@@ -2939,11 +3027,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3198,6 +3284,15 @@
       </c>
       <c r="D28" s="1"/>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="12">
+        <f>+COUNTIF(C4:C28,"Yes")</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A4:G28">
     <sortCondition ref="B28"/>

--- a/ACE_UseCase_Update.xlsx
+++ b/ACE_UseCase_Update.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="14880" windowHeight="7875" tabRatio="778"/>
+    <workbookView xWindow="480" yWindow="315" windowWidth="14880" windowHeight="7875" tabRatio="778" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JavaJMS" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="48">
   <si>
     <t>UseCase  : JMS (OrderQueue and ExecutedOrderQueue)</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>TOTAL COUNT for Done</t>
+  </si>
+  <si>
+    <t>Vikram</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1691,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,6 +1749,9 @@
       </c>
       <c r="D4" s="1">
         <v>42718.472974537035</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">

--- a/ACE_UseCase_Update.xlsx
+++ b/ACE_UseCase_Update.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="49">
   <si>
     <t>UseCase  : JMS (OrderQueue and ExecutedOrderQueue)</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Vikram</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1698,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1752,6 +1755,9 @@
       </c>
       <c r="E4" t="s">
         <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">

--- a/ACE_UseCase_Update.xlsx
+++ b/ACE_UseCase_Update.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="50">
   <si>
     <t>UseCase  : JMS (OrderQueue and ExecutedOrderQueue)</t>
   </si>
@@ -167,7 +167,10 @@
     <t>Vikram</t>
   </si>
   <si>
-    <t>Testing</t>
+    <t>Exercise 2,3,4 is working fine. Exerice 1 (Fruit Search) is not working. Exercise 5 (PriorityQueue) needs further discussion</t>
+  </si>
+  <si>
+    <t>Please recheck Exercise 1</t>
   </si>
 </sst>
 </file>
@@ -261,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -287,6 +290,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1698,7 +1704,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,7 +1714,7 @@
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="59.140625" customWidth="1"/>
     <col min="7" max="7" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1740,7 +1746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1756,8 +1762,11 @@
       <c r="E4" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="13" t="s">
         <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1797,6 +1806,9 @@
       </c>
       <c r="D7" s="1">
         <v>42718.566076388888</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">

--- a/ACE_UseCase_Update.xlsx
+++ b/ACE_UseCase_Update.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="52">
   <si>
     <t>UseCase  : JMS (OrderQueue and ExecutedOrderQueue)</t>
   </si>
@@ -170,7 +170,14 @@
     <t>Exercise 2,3,4 is working fine. Exerice 1 (Fruit Search) is not working. Exercise 5 (PriorityQueue) needs further discussion</t>
   </si>
   <si>
-    <t>Please recheck Exercise 1</t>
+    <t>Vikram 02/01/2017</t>
+  </si>
+  <si>
+    <t>Reviewed By / On</t>
+  </si>
+  <si>
+    <t>Ex-1 - Done
+Ex-5 - Done</t>
   </si>
 </sst>
 </file>
@@ -264,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -291,6 +298,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1704,7 +1714,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1715,7 +1725,7 @@
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="59.140625" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
@@ -1737,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>5</v>
@@ -1760,13 +1770,13 @@
         <v>42718.472974537035</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s">
-        <v>49</v>
+      <c r="G4" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">

--- a/ACE_UseCase_Update.xlsx
+++ b/ACE_UseCase_Update.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="53">
   <si>
     <t>UseCase  : JMS (OrderQueue and ExecutedOrderQueue)</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>Exercise 2,3,4 is working fine. Exerice 1 (Fruit Search) is not working. Exercise 5 (PriorityQueue) needs further discussion</t>
-  </si>
-  <si>
-    <t>Vikram 02/01/2017</t>
   </si>
   <si>
     <t>Reviewed By / On</t>
@@ -178,6 +175,12 @@
   <si>
     <t>Ex-1 - Done
 Ex-5 - Done</t>
+  </si>
+  <si>
+    <t>All exercises are working fine</t>
+  </si>
+  <si>
+    <t>No rework needed</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1717,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E22" sqref="E22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,7 +1750,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>5</v>
@@ -1770,13 +1773,13 @@
         <v>42718.472974537035</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>48</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1820,6 +1823,12 @@
       <c r="E7" t="s">
         <v>47</v>
       </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1920,7 +1929,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1933,8 +1942,17 @@
       <c r="D17" s="6">
         <v>42719.684027777781</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1948,7 +1966,7 @@
         <v>42724.684027777781</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1962,7 +1980,7 @@
         <v>42723.606944444444</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1976,7 +1994,7 @@
         <v>42723.606944444444</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1990,7 +2008,7 @@
         <v>42725.684027777781</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -2003,8 +2021,17 @@
       <c r="D22" s="1">
         <v>42717.68408564815</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -2018,7 +2045,7 @@
         <v>42717.68408564815</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -2032,7 +2059,7 @@
         <v>42725.705555555556</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -2046,7 +2073,7 @@
         <v>42725.705555555556</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -2054,7 +2081,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -2062,7 +2089,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -2076,7 +2103,7 @@
         <v>42725.705555555556</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>46</v>
       </c>
